--- a/backend/common/primary_data/中西區小学升学数据.xlsx
+++ b/backend/common/primary_data/中西區小学升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15880" firstSheet="6" activeTab="11"/>
+    <workbookView windowHeight="15840" firstSheet="15" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="嘉諾撒聖心學校" sheetId="1" r:id="rId1"/>
@@ -3889,7 +3889,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>

--- a/backend/common/primary_data/中西區小学升学数据.xlsx
+++ b/backend/common/primary_data/中西區小学升学数据.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" firstSheet="15" activeTab="11"/>
+    <workbookView windowHeight="15820" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="嘉諾撒聖心學校" sheetId="1" r:id="rId1"/>
+    <sheet name="嘉诺撒圣心学校私立部" sheetId="1" r:id="rId1"/>
     <sheet name="聖類斯中學(小學部)" sheetId="2" r:id="rId2"/>
     <sheet name="救恩學校" sheetId="3" r:id="rId3"/>
     <sheet name="聖嘉勒小學" sheetId="4" r:id="rId4"/>
@@ -19,7 +19,7 @@
     <sheet name="英皇書院同學會小學第二校" sheetId="10" r:id="rId10"/>
     <sheet name="新會商會學校" sheetId="11" r:id="rId11"/>
     <sheet name="中西區聖安多尼學校" sheetId="12" r:id="rId12"/>
-    <sheet name="嘉諾撒聖心學校私立部" sheetId="13" r:id="rId13"/>
+    <sheet name="嘉諾撒聖心學校" sheetId="13" r:id="rId13"/>
     <sheet name="聖士提反女子中學附屬小學" sheetId="14" r:id="rId14"/>
     <sheet name="香港潮商學校" sheetId="15" r:id="rId15"/>
     <sheet name="英皇書院同學會小學" sheetId="16" r:id="rId16"/>
@@ -950,12 +950,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
@@ -966,6 +960,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="inherit"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1713,7 +1713,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15224760" y="193040"/>
+          <a:off x="13195300" y="193040"/>
           <a:ext cx="3810000" cy="3054985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1744,7 +1744,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15224760" y="2606040"/>
+          <a:off x="13195300" y="2606040"/>
           <a:ext cx="3810000" cy="2799080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1780,7 +1780,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8439150" y="1749425"/>
+          <a:off x="7412990" y="1749425"/>
           <a:ext cx="1858010" cy="3810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1816,7 +1816,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="685800"/>
+          <a:off x="6670040" y="685800"/>
           <a:ext cx="2661285" cy="3810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2092,13 +2092,13 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="3" max="3" width="35.8" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="3" max="3" width="35.7980769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2914,10 +2914,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
-    <col min="5" max="5" width="39.6" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
+    <col min="5" max="5" width="39.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3530,10 +3530,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
-    <col min="5" max="5" width="38.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
+    <col min="5" max="5" width="38.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -3888,16 +3888,16 @@
   <sheetPr codeName="中西區聖安多尼學校"/>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
-    <col min="5" max="5" width="39.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
+    <col min="5" max="5" width="39.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" ht="15.2" spans="2:7">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>112</v>
@@ -4587,15 +4587,15 @@
   <sheetPr codeName="嘉諾撒聖心學校"/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4962,9 +4962,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.8" customWidth="1"/>
-    <col min="2" max="2" width="29.2" customWidth="1"/>
-    <col min="3" max="3" width="20.2" customWidth="1"/>
+    <col min="1" max="1" width="18.7980769230769" customWidth="1"/>
+    <col min="2" max="2" width="29.2019230769231" customWidth="1"/>
+    <col min="3" max="3" width="20.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -5318,10 +5318,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
-    <col min="5" max="5" width="52.8" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
+    <col min="5" max="5" width="52.7980769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -5615,9 +5615,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -5983,9 +5983,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -6343,9 +6343,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -6577,9 +6577,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -6933,10 +6933,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="3" max="3" width="32.4" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="3" max="3" width="32.4038461538462" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="57.4" customWidth="1"/>
+    <col min="5" max="5" width="57.4038461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:10">
@@ -7223,7 +7223,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" ht="15.2" spans="2:10">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>49</v>
@@ -7292,9 +7292,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -7588,9 +7588,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:5">
@@ -7875,8 +7875,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="3" max="3" width="28.2" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="3" max="3" width="28.2019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -8267,8 +8267,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.4" customWidth="1"/>
-    <col min="3" max="3" width="30.4" customWidth="1"/>
+    <col min="1" max="1" width="17.4038461538462" customWidth="1"/>
+    <col min="3" max="3" width="30.4038461538462" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8675,10 +8675,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
-    <col min="5" max="5" width="40.6" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
+    <col min="5" max="5" width="40.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -8929,10 +8929,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
-    <col min="5" max="5" width="48.4" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
+    <col min="5" max="5" width="48.4038461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -9101,9 +9101,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
-    <col min="4" max="4" width="20.2" customWidth="1"/>
+    <col min="1" max="2" width="18.7980769230769" customWidth="1"/>
+    <col min="3" max="3" width="29.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="20.2019230769231" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>

--- a/backend/common/primary_data/中西區小学升学数据.xlsx
+++ b/backend/common/primary_data/中西區小学升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820" firstSheet="7" activeTab="12"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="嘉诺撒圣心学校私立部" sheetId="1" r:id="rId1"/>
@@ -2091,8 +2091,8 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="6"/>
@@ -4587,7 +4587,7 @@
   <sheetPr codeName="嘉諾撒聖心學校"/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/backend/common/primary_data/中西區小学升学数据.xlsx
+++ b/backend/common/primary_data/中西區小学升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="15820" firstSheet="15" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="嘉诺撒圣心学校私立部" sheetId="1" r:id="rId1"/>
@@ -943,6 +943,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="inherit"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
@@ -954,12 +960,6 @@
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="inherit"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2091,7 +2091,7 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4588,7 +4588,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -6927,8 +6927,8 @@
   <sheetPr codeName="聖類斯中學(小學部)"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>

--- a/backend/common/primary_data/中西區小学升学数据.xlsx
+++ b/backend/common/primary_data/中西區小学升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820" firstSheet="15" activeTab="1"/>
+    <workbookView windowHeight="15740" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="嘉诺撒圣心学校私立部" sheetId="1" r:id="rId1"/>
@@ -5977,8 +5977,8 @@
   <sheetPr codeName="聖公會基恩小學"/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -6927,7 +6927,7 @@
   <sheetPr codeName="聖類斯中學(小學部)"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
